--- a/analysed data/summary.xlsx
+++ b/analysed data/summary.xlsx
@@ -1,29 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lyra/Desktop/DG whale/analysed data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lyra/Documents/GitHub/DGwhale/analysed data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399F5853-F892-E24C-9983-BBA6E5947EF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0068A02B-B78B-0745-AACA-3043676C2F09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="660" windowWidth="27240" windowHeight="14980" activeTab="7" xr2:uid="{C6F48289-6886-7E46-B3B3-3AC9134A4523}"/>
+    <workbookView xWindow="-16840" yWindow="-18260" windowWidth="27240" windowHeight="14980" activeTab="4" xr2:uid="{C6F48289-6886-7E46-B3B3-3AC9134A4523}"/>
   </bookViews>
   <sheets>
-    <sheet name="SST-average" sheetId="1" r:id="rId1"/>
-    <sheet name="SST-min" sheetId="2" r:id="rId2"/>
-    <sheet name="SST-max" sheetId="3" r:id="rId3"/>
-    <sheet name="Chl-a average" sheetId="4" r:id="rId4"/>
-    <sheet name="Chl-a min" sheetId="5" r:id="rId5"/>
-    <sheet name="Chl-a max" sheetId="6" r:id="rId6"/>
-    <sheet name="whale call - se" sheetId="7" r:id="rId7"/>
-    <sheet name="whale call - nw" sheetId="8" r:id="rId8"/>
+    <sheet name="data collection" sheetId="9" r:id="rId1"/>
+    <sheet name="SST-average" sheetId="1" r:id="rId2"/>
+    <sheet name="SST-min" sheetId="2" r:id="rId3"/>
+    <sheet name="SST-max" sheetId="3" r:id="rId4"/>
+    <sheet name="Chl-a average" sheetId="4" r:id="rId5"/>
+    <sheet name="Chl-a min" sheetId="5" r:id="rId6"/>
+    <sheet name="Chl-a max" sheetId="6" r:id="rId7"/>
+    <sheet name="whale call - se" sheetId="7" r:id="rId8"/>
+    <sheet name="whale call - nw" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'whale call - se'!$G$2:$G$18</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'whale call - se'!$F$2:$F$18</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'whale call - se'!$F$2:$F$18</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'whale call - se'!$F$2:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="37">
   <si>
     <t>NW</t>
   </si>
@@ -96,12 +99,72 @@
   <si>
     <t>March - end</t>
   </si>
+  <si>
+    <t>SST</t>
+  </si>
+  <si>
+    <t>chlorophyll-a data</t>
+  </si>
+  <si>
+    <t>mg/m^3</t>
+  </si>
+  <si>
+    <t>northwest</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>6.34S</t>
+  </si>
+  <si>
+    <t>71.01E</t>
+  </si>
+  <si>
+    <t>southeast</t>
+  </si>
+  <si>
+    <t>7.65S</t>
+  </si>
+  <si>
+    <t>72.47E</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>2002-2014</t>
+  </si>
+  <si>
+    <t>2002-2018</t>
+  </si>
+  <si>
+    <t>(12*12)</t>
+  </si>
+  <si>
+    <t>(2*3)</t>
+  </si>
+  <si>
+    <t>(13*13)</t>
+  </si>
+  <si>
+    <t>(3*2)</t>
+  </si>
+  <si>
+    <t>(2*1)</t>
+  </si>
+  <si>
+    <t>(10*10)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -134,6 +197,12 @@
       <name val="Lucida Grande"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -161,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -169,6 +238,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,6 +272,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" b="0"/>
+              <a:t>Average Call per day - SE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -233,17 +329,15 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -253,17 +347,152 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="002060"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="002060"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.4838465845025694E-3"/>
+                  <c:y val="-0.33303404782735491"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>rho = 7.6998</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'whale call - se'!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'whale call - se'!$F$2:$F$18</c:f>
               <c:numCache>
@@ -322,7 +551,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -338,18 +567,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
         <c:axId val="2470975"/>
         <c:axId val="2095985824"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="2470975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2018"/>
+          <c:min val="2002"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -388,11 +618,9 @@
         </c:txPr>
         <c:crossAx val="2095985824"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="2095985824"/>
         <c:scaling>
@@ -447,7 +675,7 @@
         </c:txPr>
         <c:crossAx val="2470975"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1154,6 +1382,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" b="0"/>
+              <a:t>Average Call per day - NW</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1186,17 +1439,15 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1206,68 +1457,204 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="002060"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="002060"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.7334153142779262E-3"/>
+                  <c:y val="-0.27006247372996622"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>rho = 5.5882</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
-              <c:f>'whale call - nw'!$F$2:$F$14</c:f>
+              <c:f>'whale call - nw'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>79.330578512396698</c:v>
+                  <c:v>2002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.424657534246577</c:v>
+                  <c:v>2003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.126666666666665</c:v>
+                  <c:v>2004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>142.50136986301371</c:v>
+                  <c:v>2005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.023474178403752</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>209.02702702702703</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.69359331476323</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>112.02197802197803</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>98.988826815642454</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>191.61917808219178</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>288.5409836065574</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>186.37534246575342</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>255.01666666666668</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'whale call - se'!$F$2:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>97.336088154269973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.96438356164384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.78212290502793</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.197841726618705</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>144.09722222222223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.926027397260274</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140.92582417582418</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.568181818181813</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>126.72802197802197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>149.86612021857923</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>186.52602739726026</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>138.0849315068493</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>231.17534246575343</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>155.61772853185596</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>249.28493150684932</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>153.11931818181819</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-36CE-4D40-9C62-0F6AEFAB0DF2}"/>
+              <c16:uniqueId val="{00000001-34E8-914F-B753-51685630A9D4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1279,18 +1666,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1912254320"/>
-        <c:axId val="2327151"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1912254320"/>
+        <c:axId val="2470975"/>
+        <c:axId val="2095985824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2470975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2014"/>
+          <c:min val="2002"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1327,15 +1715,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2327151"/>
+        <c:crossAx val="2095985824"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="2327151"/>
+        <c:axId val="2095985824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1386,9 +1772,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1912254320"/>
+        <c:crossAx val="2470975"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3631,16 +4017,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>249819</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>159543</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3745,26 +4131,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>203201</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>654050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276119</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>158220</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D6F10FD-1697-7F42-8A5C-F1AC6267BB20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D410958-9C0A-C645-BB33-CC8FA9937B8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4077,6 +4465,289 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCD67CB-5783-A648-A5B5-B26073DC6696}">
+  <dimension ref="A2:G24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="133" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>-6.1041670000000003</v>
+      </c>
+      <c r="C10">
+        <v>-6.5625</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>-7.3541670000000003</v>
+      </c>
+      <c r="G10">
+        <v>-7.8541670000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>70.8125</v>
+      </c>
+      <c r="C11">
+        <v>71.270840000000007</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>72.229159999999993</v>
+      </c>
+      <c r="G11">
+        <v>72.729159999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-6.3125</v>
+      </c>
+      <c r="C13">
+        <v>-6.3958329999999997</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <v>-7.6041670000000003</v>
+      </c>
+      <c r="G13">
+        <v>-7.6875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>70.979159999999993</v>
+      </c>
+      <c r="C14">
+        <v>71.0625</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>72.4375</v>
+      </c>
+      <c r="G14">
+        <v>72.479159999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>-6.5750000000000002</v>
+      </c>
+      <c r="C20">
+        <v>-6.125</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>70.775000000000006</v>
+      </c>
+      <c r="C21">
+        <v>71.224999999999994</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>-6.375</v>
+      </c>
+      <c r="C23">
+        <v>-6.2750000000000004</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>70.974999999999994</v>
+      </c>
+      <c r="C24">
+        <v>71.025000000000006</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0928A80-8E61-5746-A024-6A356509A442}">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -4198,7 +4869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E2936F-3C04-5644-8A33-52F3B6E279A5}">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -4320,7 +4991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D59183-56F4-744C-93FA-CBDFD4F4C470}">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -4442,17 +5113,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B562D76-9EAC-C843-A373-1EF6C8BBA05F}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4460,7 +5131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -4474,212 +5145,329 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2002</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="6">
+        <v>0.12934880000000001</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.14501500000000001</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.14022970000000001</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.14432449999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2003</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="6">
+        <v>0.14344560000000001</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.1531709</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.1160216</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.125218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2004</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="6">
+        <v>0.1732303</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.1847297</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.1217898</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.1348345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2005</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="6">
+        <v>0.1769743</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.18241889999999999</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.1474791</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.1513496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2006</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="6">
+        <v>0.13732749999999999</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.14773230000000001</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.14352419999999999</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.15388389999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2007</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="6">
+        <v>0.1256381</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.1427234</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.13870479999999999</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.13888210000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2008</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="6">
+        <v>0.12973480000000001</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.13677719999999999</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.1171198</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.1274496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2009</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="6">
+        <v>0.14439640000000001</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.15652659999999999</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.14331250000000001</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.148483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2010</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="6">
+        <v>0.1316447</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.14708769999999999</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.14415890000000001</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.1508564</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2011</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="6">
+        <v>0.14765039999999999</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.1624516</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.14108989999999999</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.14935419999999999</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2012</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="6">
+        <v>0.1090705</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.12549289999999999</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.1044818</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.10833669999999999</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2013</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="6">
+        <v>0.12335069999999999</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.1313984</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.12547140000000001</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.1233515</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2014</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="6">
+        <v>0.1256044</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.14006160000000001</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.123959</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.1229079</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2015</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D16" s="6">
+        <v>0.1042261</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.10538549999999999</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2016</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D17" s="6">
+        <v>0.12853700000000001</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.1250705</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2017</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D18" s="6">
+        <v>0.1378828</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.13775270000000001</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2018</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F0A704-EBB5-F04D-A2A0-55939EC5A283}">
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2018</v>
-      </c>
+      <c r="D19" s="6">
+        <v>0.125885</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.1209267</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4687,6 +5475,386 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F0A704-EBB5-F04D-A2A0-55939EC5A283}">
+  <dimension ref="A1:L55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2008</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2009</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2010</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2011</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2012</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2013</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2014</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2015</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2016</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2017</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="K18" s="3">
+        <v>2002</v>
+      </c>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2018</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G20" s="5"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H24" s="7">
+        <v>12</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H25" s="7">
+        <v>13</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K32" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="34" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0.1256381</v>
+      </c>
+    </row>
+    <row r="35" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K36" s="3">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="37" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K37" s="3">
+        <v>0.12973480000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K39" s="3">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="40" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K40" s="3">
+        <v>0.14439640000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="43" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3">
+        <v>0.1316447</v>
+      </c>
+    </row>
+    <row r="44" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="46" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3">
+        <v>0.14765039999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3">
+        <v>0.1090705</v>
+      </c>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="52" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3">
+        <v>0.12335069999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="55" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K55" s="3">
+        <v>0.1256044</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C95403-0688-CE45-8CFF-89F6A1670CBF}">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -4808,12 +5976,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B474738E-A799-2444-AD34-F9C33B8A4EA0}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="B17" zoomScale="117" zoomScaleNormal="181" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4863,7 +6031,7 @@
         <v>97.336088154269973</v>
       </c>
       <c r="G2">
-        <f>B2/E2</f>
+        <f t="shared" ref="G2:G18" si="0">B2/E2</f>
         <v>4.1422039859320048</v>
       </c>
     </row>
@@ -4885,7 +6053,7 @@
         <v>100.96438356164384</v>
       </c>
       <c r="G3">
-        <f>B3/E3</f>
+        <f t="shared" si="0"/>
         <v>4.2710615069017077</v>
       </c>
     </row>
@@ -4910,7 +6078,7 @@
         <v>94.53</v>
       </c>
       <c r="G4">
-        <f>B4/E4</f>
+        <f t="shared" si="0"/>
         <v>4.0643496954496596</v>
       </c>
     </row>
@@ -4932,7 +6100,7 @@
         <v>100.78212290502793</v>
       </c>
       <c r="G5">
-        <f>B5/E5</f>
+        <f t="shared" si="0"/>
         <v>4.2074329761057925</v>
       </c>
     </row>
@@ -4957,7 +6125,7 @@
         <v>73.197841726618705</v>
       </c>
       <c r="G6">
-        <f>B6/E6</f>
+        <f t="shared" si="0"/>
         <v>3.017393496344845</v>
       </c>
     </row>
@@ -4982,7 +6150,7 @@
         <v>144.09722222222223</v>
       </c>
       <c r="G7">
-        <f>B7/E7</f>
+        <f t="shared" si="0"/>
         <v>6.1789053659698654</v>
       </c>
     </row>
@@ -5004,7 +6172,7 @@
         <v>16.926027397260274</v>
       </c>
       <c r="G8" s="2">
-        <f>B8/E8</f>
+        <f t="shared" si="0"/>
         <v>0.71619021121699</v>
       </c>
     </row>
@@ -5026,7 +6194,7 @@
         <v>140.92582417582418</v>
       </c>
       <c r="G9">
-        <f>B9/E9</f>
+        <f t="shared" si="0"/>
         <v>5.8719093406593403</v>
       </c>
     </row>
@@ -5048,7 +6216,7 @@
         <v>97.568181818181813</v>
       </c>
       <c r="G10">
-        <f>B10/E10</f>
+        <f t="shared" si="0"/>
         <v>4.0313644473659496</v>
       </c>
     </row>
@@ -5070,7 +6238,7 @@
         <v>126.72802197802197</v>
       </c>
       <c r="G11">
-        <f>B11/E11</f>
+        <f t="shared" si="0"/>
         <v>5.3123812375479371</v>
       </c>
     </row>
@@ -5092,7 +6260,7 @@
         <v>149.86612021857923</v>
       </c>
       <c r="G12">
-        <f>B12/E12</f>
+        <f t="shared" si="0"/>
         <v>6.2447060430802859</v>
       </c>
     </row>
@@ -5114,7 +6282,7 @@
         <v>186.52602739726026</v>
       </c>
       <c r="G13">
-        <f>B13/E13</f>
+        <f t="shared" si="0"/>
         <v>7.771917808219178</v>
       </c>
     </row>
@@ -5136,7 +6304,7 @@
         <v>138.0849315068493</v>
       </c>
       <c r="G14">
-        <f>B14/E14</f>
+        <f t="shared" si="0"/>
         <v>5.7629463622122863</v>
       </c>
     </row>
@@ -5158,7 +6326,7 @@
         <v>231.17534246575343</v>
       </c>
       <c r="G15">
-        <f>B15/E15</f>
+        <f t="shared" si="0"/>
         <v>9.6707238802548936</v>
       </c>
     </row>
@@ -5176,11 +6344,11 @@
         <v>8634.4</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F18" si="0">B16/(366-D16)</f>
+        <f t="shared" ref="F16" si="1">B16/(366-D16)</f>
         <v>155.61772853185596</v>
       </c>
       <c r="G16">
-        <f>B16/E16</f>
+        <f t="shared" si="0"/>
         <v>6.5063003798758459</v>
       </c>
     </row>
@@ -5198,11 +6366,11 @@
         <v>8750.7000000000007</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17:F18" si="1">B17/(365-D17)</f>
+        <f t="shared" ref="F17" si="2">B17/(365-D17)</f>
         <v>249.28493150684932</v>
       </c>
       <c r="G17">
-        <f>B17/E17</f>
+        <f t="shared" si="0"/>
         <v>10.397911024260916</v>
       </c>
     </row>
@@ -5227,7 +6395,7 @@
         <v>153.11931818181819</v>
       </c>
       <c r="G18">
-        <f>B18/E18</f>
+        <f t="shared" si="0"/>
         <v>6.4625899280575538</v>
       </c>
     </row>
@@ -5535,12 +6703,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C434CCE-30A9-7B47-864A-67133DAB6FB0}">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/analysed data/summary.xlsx
+++ b/analysed data/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lyra/Documents/GitHub/DGwhale/analysed data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CE2961-6347-174D-882D-1C08662D527F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404D258D-A3D1-AB4F-A22D-4A05403BA1A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="27240" windowHeight="14980" activeTab="4" xr2:uid="{C6F48289-6886-7E46-B3B3-3AC9134A4523}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="27240" windowHeight="14980" firstSheet="1" activeTab="4" xr2:uid="{C6F48289-6886-7E46-B3B3-3AC9134A4523}"/>
   </bookViews>
   <sheets>
     <sheet name="data collection" sheetId="9" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="260">
   <si>
     <t>NW</t>
   </si>
@@ -2225,7 +2225,7 @@
               <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Average whale presence and chl-a - SE</a:t>
+              <a:t>Average whale presence and chl-a - NW</a:t>
             </a:r>
             <a:endParaRPr lang="en-AU">
               <a:effectLst/>
@@ -2712,6 +2712,7 @@
         <c:axId val="462658415"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.25"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2764,6 +2765,7 @@
         <c:crossAx val="187374831"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2.5000000000000005E-2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="187611167"/>
@@ -9328,6 +9330,7 @@
         <c:crossAx val="187374831"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2.5000000000000005E-2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="187611167"/>
@@ -19133,9 +19136,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>298008</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>67536</xdr:rowOff>
+      <xdr:colOff>398060</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>37910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20197,7 +20200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5A154A-8E95-064A-B1BF-CF216A69922E}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="118" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -20926,7 +20929,7 @@
   <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="206" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -21883,7 +21886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B562D76-9EAC-C843-A373-1EF6C8BBA05F}">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScaleNormal="119" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="50" zoomScaleNormal="119" workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
@@ -23066,8 +23069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA711B83-9B96-9244-80BA-6A430995561D}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X45" zoomScale="133" workbookViewId="0">
-      <selection activeCell="Z30" sqref="Z30"/>
+    <sheetView tabSelected="1" topLeftCell="G24" zoomScale="60" workbookViewId="0">
+      <selection activeCell="AB70" sqref="AB70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -26186,8 +26189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1306D6C7-D7DC-0B4D-AA74-0966A97471B3}">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3:Y7"/>
+    <sheetView topLeftCell="R1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -27026,8 +27029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E575A6A8-D36B-1E42-A89C-ECDE6FA02A7B}">
   <dimension ref="A1:Z92"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView topLeftCell="Q7" zoomScale="125" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -27198,10 +27201,33 @@
       <c r="K14" s="15" t="s">
         <v>207</v>
       </c>
+      <c r="W14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="10"/>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="5"/>
       <c r="K15" s="5"/>
+      <c r="V15" t="s">
+        <v>175</v>
+      </c>
+      <c r="W15" t="s">
+        <v>171</v>
+      </c>
+      <c r="X15" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="15" t="s">
@@ -27210,16 +27236,46 @@
       <c r="K16" s="15" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="V16" t="s">
+        <v>17</v>
+      </c>
+      <c r="W16">
+        <v>-1.138422</v>
+      </c>
+      <c r="X16" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y16">
+        <v>0.27922000000000002</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" s="15" t="s">
         <v>194</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="V17" t="s">
+        <v>169</v>
+      </c>
+      <c r="W17">
+        <v>16.4514</v>
+      </c>
+      <c r="X17" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y17">
+        <v>-1.7807999999999999</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" s="15" t="s">
         <v>227</v>
       </c>
@@ -27227,7 +27283,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:26">
       <c r="A19" s="15" t="s">
         <v>228</v>
       </c>
@@ -27235,11 +27291,11 @@
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:26">
       <c r="A20" s="5"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:26">
       <c r="A21" s="15" t="s">
         <v>197</v>
       </c>
@@ -27247,7 +27303,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:26">
       <c r="A22" s="15" t="s">
         <v>78</v>
       </c>
@@ -27255,7 +27311,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:26">
       <c r="A23" s="15" t="s">
         <v>229</v>
       </c>
@@ -27263,7 +27319,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:26">
       <c r="A24" s="15" t="s">
         <v>230</v>
       </c>
@@ -27271,7 +27327,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:26">
       <c r="A25" s="15" t="s">
         <v>81</v>
       </c>
@@ -27279,7 +27335,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:26">
       <c r="A26" s="15" t="s">
         <v>82</v>
       </c>
@@ -27287,11 +27343,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:26">
       <c r="A27" s="5"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:26">
       <c r="A28" s="15" t="s">
         <v>200</v>
       </c>
@@ -27299,7 +27355,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:26">
       <c r="A29" s="15" t="s">
         <v>201</v>
       </c>
@@ -27307,7 +27363,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:26">
       <c r="A30" s="15" t="s">
         <v>231</v>
       </c>
@@ -27315,12 +27371,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:26">
       <c r="K31" s="15" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:26">
       <c r="K32" s="15" t="s">
         <v>202</v>
       </c>
@@ -27734,10 +27790,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="W5:X5"/>
     <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="W14:X14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/analysed data/summary.xlsx
+++ b/analysed data/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lyra/Documents/GitHub/DGwhale/analysed data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404D258D-A3D1-AB4F-A22D-4A05403BA1A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA0BEBE-3A44-5249-A1FC-5AD35D038EA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="27240" windowHeight="14980" firstSheet="1" activeTab="4" xr2:uid="{C6F48289-6886-7E46-B3B3-3AC9134A4523}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="27240" windowHeight="14980" firstSheet="3" activeTab="9" xr2:uid="{C6F48289-6886-7E46-B3B3-3AC9134A4523}"/>
   </bookViews>
   <sheets>
     <sheet name="data collection" sheetId="9" r:id="rId1"/>
@@ -851,7 +851,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -19771,16 +19771,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCD67CB-5783-A648-A5B5-B26073DC6696}">
   <dimension ref="A2:G31"/>
   <sheetViews>
-    <sheetView zoomScale="133" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="125" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>20</v>
       </c>
@@ -19788,7 +19788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -19802,7 +19802,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -19816,7 +19816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -19830,7 +19830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -19851,7 +19851,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -19860,7 +19860,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -19868,7 +19868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -19888,7 +19888,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -19908,7 +19908,7 @@
         <v>-7.8541670000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -19928,7 +19928,7 @@
         <v>72.729159999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -19948,7 +19948,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -19968,7 +19968,7 @@
         <v>-7.6875</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -19988,7 +19988,7 @@
         <v>72.479159999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -20008,12 +20008,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -20021,7 +20021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -20035,7 +20035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -20049,7 +20049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -20063,7 +20063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -20083,7 +20083,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -20103,7 +20103,7 @@
         <v>-7.6874979999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -20123,12 +20123,12 @@
         <v>72.520830000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -20148,7 +20148,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -20168,7 +20168,7 @@
         <v>-7.5750000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -20200,18 +20200,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5A154A-8E95-064A-B1BF-CF216A69922E}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="118" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="118" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>171</v>
       </c>
@@ -20222,7 +20222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" customHeight="1">
+    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>177</v>
       </c>
@@ -20236,7 +20236,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -20253,7 +20253,7 @@
         <v>-0.96453</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2003</v>
       </c>
@@ -20270,7 +20270,7 @@
         <v>-0.80810999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2004</v>
       </c>
@@ -20287,7 +20287,7 @@
         <v>-0.40650999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2005</v>
       </c>
@@ -20304,7 +20304,7 @@
         <v>-1.8620000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2006</v>
       </c>
@@ -20321,7 +20321,7 @@
         <v>-1.10406</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -20338,7 +20338,7 @@
         <v>0.53659999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2008</v>
       </c>
@@ -20355,7 +20355,7 @@
         <v>-2.8679999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2009</v>
       </c>
@@ -20372,7 +20372,7 @@
         <v>-1.4030800000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2010</v>
       </c>
@@ -20389,7 +20389,7 @@
         <v>-0.88614000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2011</v>
       </c>
@@ -20406,7 +20406,7 @@
         <v>-1.38401</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2012</v>
       </c>
@@ -20423,7 +20423,7 @@
         <v>-1.5867100000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2013</v>
       </c>
@@ -20440,7 +20440,7 @@
         <v>-1.1413</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2014</v>
       </c>
@@ -20457,7 +20457,7 @@
         <v>-0.68864999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -20468,7 +20468,7 @@
         <v>-0.69315000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2016</v>
       </c>
@@ -20479,7 +20479,7 @@
         <v>-2.4279299999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2017</v>
       </c>
@@ -20490,7 +20490,7 @@
         <v>-2.2722500000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -20501,7 +20501,7 @@
         <v>-1.48695</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>172</v>
       </c>
@@ -20512,7 +20512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>177</v>
       </c>
@@ -20526,7 +20526,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2002</v>
       </c>
@@ -20543,7 +20543,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2003</v>
       </c>
@@ -20560,7 +20560,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2004</v>
       </c>
@@ -20577,7 +20577,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2005</v>
       </c>
@@ -20594,7 +20594,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2006</v>
       </c>
@@ -20611,7 +20611,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2007</v>
       </c>
@@ -20628,7 +20628,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2008</v>
       </c>
@@ -20645,7 +20645,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2009</v>
       </c>
@@ -20662,7 +20662,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2010</v>
       </c>
@@ -20679,7 +20679,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2011</v>
       </c>
@@ -20696,7 +20696,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2012</v>
       </c>
@@ -20713,7 +20713,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2013</v>
       </c>
@@ -20730,7 +20730,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2014</v>
       </c>
@@ -20747,7 +20747,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2015</v>
       </c>
@@ -20758,7 +20758,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2016</v>
       </c>
@@ -20769,7 +20769,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2017</v>
       </c>
@@ -20780,7 +20780,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2018</v>
       </c>
@@ -20801,15 +20801,15 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="163" workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
@@ -20817,7 +20817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>253</v>
       </c>
@@ -20828,7 +20828,7 @@
         <v>1.8700000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>252</v>
       </c>
@@ -20839,7 +20839,7 @@
         <v>3.8800000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>254</v>
       </c>
@@ -20850,7 +20850,7 @@
         <v>-6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
         <v>0</v>
       </c>
@@ -20860,7 +20860,7 @@
       </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -20877,7 +20877,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -20894,7 +20894,7 @@
         <v>27.532664705882354</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>169</v>
       </c>
@@ -20911,7 +20911,7 @@
         <v>0.15637277647058823</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
     </row>
@@ -20928,13 +20928,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0928A80-8E61-5746-A024-6A356509A442}">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="206" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="135" zoomScaleNormal="206" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>38</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -20978,7 +20978,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>68</v>
       </c>
@@ -21014,7 +21014,7 @@
       </c>
       <c r="R3" s="12"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -21052,7 +21052,7 @@
       <c r="R4" s="7"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -21091,7 +21091,7 @@
       </c>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -21132,7 +21132,7 @@
       <c r="R6" s="6"/>
       <c r="T6" s="7"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -21171,7 +21171,7 @@
       </c>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -21210,7 +21210,7 @@
       </c>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -21252,7 +21252,7 @@
       </c>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -21292,7 +21292,7 @@
       </c>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -21334,7 +21334,7 @@
       </c>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -21376,7 +21376,7 @@
       </c>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -21418,7 +21418,7 @@
       </c>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -21460,7 +21460,7 @@
       </c>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -21502,7 +21502,7 @@
       </c>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -21544,7 +21544,7 @@
       </c>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -21575,7 +21575,7 @@
       </c>
       <c r="R17" s="6"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -21606,7 +21606,7 @@
       </c>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -21637,7 +21637,7 @@
       </c>
       <c r="R19" s="6"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -21668,7 +21668,7 @@
       </c>
       <c r="R20" s="6"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>AVERAGE(B4:B16)</f>
         <v>28.433006923076924</v>
@@ -21717,7 +21717,7 @@
       </c>
       <c r="R21" s="6"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I22" s="7">
         <v>12</v>
       </c>
@@ -21727,7 +21727,7 @@
       </c>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F23" s="12" t="s">
         <v>67</v>
       </c>
@@ -21740,11 +21740,11 @@
       </c>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E24" s="7"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -21752,13 +21752,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="14">
         <v>2</v>
@@ -21768,7 +21768,7 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="14">
         <v>3</v>
@@ -21778,7 +21778,7 @@
       </c>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="14">
         <v>4</v>
@@ -21788,7 +21788,7 @@
       </c>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="14">
         <v>5</v>
@@ -21799,75 +21799,75 @@
       <c r="F30" s="6"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="14">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="14">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="14">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
       <c r="B37" s="14">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="14">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B39" s="14">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B40" s="14">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B41" s="14">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B42" s="14">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
         <v>71</v>
       </c>
@@ -21890,9 +21890,9 @@
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>38</v>
       </c>
@@ -21915,7 +21915,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1">
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -21935,7 +21935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -21973,7 +21973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -22014,7 +22014,7 @@
         <v>0.10811900000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -22055,7 +22055,7 @@
         <v>0.10168652</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -22096,7 +22096,7 @@
         <v>9.8473190000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -22137,7 +22137,7 @@
         <v>0.1160006</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -22178,7 +22178,7 @@
         <v>0.13728480000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -22219,7 +22219,7 @@
         <v>9.1592770000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -22260,7 +22260,7 @@
         <v>0.11953698</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -22301,7 +22301,7 @@
         <v>0.1186232</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -22342,7 +22342,7 @@
         <v>0.11866515</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -22383,7 +22383,7 @@
         <v>0.15726254000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -22424,7 +22424,7 @@
         <v>0.10752927</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -22465,7 +22465,7 @@
         <v>9.7038369999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -22506,7 +22506,7 @@
         <v>9.2707910000000004E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -22530,7 +22530,7 @@
         <v>8.2122150000000005E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -22554,7 +22554,7 @@
         <v>7.9024280000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -22578,7 +22578,7 @@
         <v>0.12379315</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -22602,7 +22602,7 @@
         <v>9.6489190000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>167</v>
       </c>
@@ -22655,33 +22655,33 @@
         <v>0.10858523941176469</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="4"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="4"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>168</v>
       </c>
@@ -22692,7 +22692,7 @@
       <c r="L26" s="8"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
       <c r="I27" s="8"/>
@@ -22701,7 +22701,7 @@
       <c r="L27" s="8"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G28" s="6"/>
       <c r="H28" s="7"/>
       <c r="I28" s="8"/>
@@ -22710,7 +22710,7 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G29" s="6"/>
       <c r="H29" s="7"/>
       <c r="I29" s="6"/>
@@ -22719,7 +22719,7 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="5"/>
@@ -22731,7 +22731,7 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="5"/>
@@ -22743,7 +22743,7 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -22755,7 +22755,7 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="4:13">
+    <row r="33" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -22767,7 +22767,7 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="4:13">
+    <row r="34" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -22779,7 +22779,7 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="4:13">
+    <row r="35" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -22791,7 +22791,7 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="4:13">
+    <row r="36" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -22803,7 +22803,7 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="4:13">
+    <row r="37" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -22815,7 +22815,7 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="4:13">
+    <row r="38" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -22827,7 +22827,7 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="4:13">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -22838,7 +22838,7 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="4:13">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -22849,7 +22849,7 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="4:13">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -22860,7 +22860,7 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="4:13">
+    <row r="42" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -22871,7 +22871,7 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="4:13">
+    <row r="43" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -22882,7 +22882,7 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="4:13">
+    <row r="44" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -22893,20 +22893,20 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="4:13">
+    <row r="45" spans="4:13" x14ac:dyDescent="0.2">
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="4:13">
+    <row r="46" spans="4:13" x14ac:dyDescent="0.2">
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="4:13">
+    <row r="47" spans="4:13" x14ac:dyDescent="0.2">
       <c r="I47" s="3">
         <v>2009</v>
       </c>
@@ -22914,7 +22914,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="4:13">
+    <row r="48" spans="4:13" x14ac:dyDescent="0.2">
       <c r="I48" s="3">
         <v>0.1632642</v>
       </c>
@@ -22922,7 +22922,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="9:12">
+    <row r="49" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I49" s="3">
         <v>9</v>
       </c>
@@ -22930,7 +22930,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="9:12">
+    <row r="50" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I50" s="3">
         <v>2010</v>
       </c>
@@ -22938,7 +22938,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="9:12">
+    <row r="51" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I51" s="3">
         <v>0.14397750000000001</v>
       </c>
@@ -22946,7 +22946,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="9:12">
+    <row r="52" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I52" s="3">
         <v>10</v>
       </c>
@@ -22954,7 +22954,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="9:12">
+    <row r="53" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I53" s="3">
         <v>2011</v>
       </c>
@@ -22962,7 +22962,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="9:12">
+    <row r="54" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I54" s="3">
         <v>0.16097149999999999</v>
       </c>
@@ -22970,7 +22970,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="9:12">
+    <row r="55" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I55" s="3">
         <v>11</v>
       </c>
@@ -22978,7 +22978,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="9:12">
+    <row r="56" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I56" s="3">
         <v>2012</v>
       </c>
@@ -22986,7 +22986,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="9:12">
+    <row r="57" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I57" s="3">
         <v>0.1172564</v>
       </c>
@@ -22994,7 +22994,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="9:12">
+    <row r="58" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I58" s="3">
         <v>12</v>
       </c>
@@ -23002,7 +23002,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="9:12">
+    <row r="59" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I59" s="3">
         <v>2013</v>
       </c>
@@ -23010,7 +23010,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="9:12">
+    <row r="60" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I60" s="3">
         <v>0.1222739</v>
       </c>
@@ -23018,7 +23018,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="9:12">
+    <row r="61" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I61" s="3">
         <v>13</v>
       </c>
@@ -23026,7 +23026,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="9:12">
+    <row r="62" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I62" s="3">
         <v>2014</v>
       </c>
@@ -23034,28 +23034,28 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="9:12">
+    <row r="63" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I63" s="3">
         <v>0.14954010000000001</v>
       </c>
       <c r="J63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="9:12">
+    <row r="64" spans="9:12" x14ac:dyDescent="0.2">
       <c r="J64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="10:12">
+    <row r="65" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="10:12">
+    <row r="66" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="10:12">
+    <row r="67" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="10:12">
+    <row r="68" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L68" s="3"/>
     </row>
   </sheetData>
@@ -23069,13 +23069,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA711B83-9B96-9244-80BA-6A430995561D}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G24" zoomScale="60" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="57" workbookViewId="0">
       <selection activeCell="AB70" sqref="AB70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
@@ -23089,7 +23089,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="17" t="s">
         <v>248</v>
@@ -23116,7 +23116,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <v>1</v>
       </c>
@@ -23145,7 +23145,7 @@
         <v>0.1750217</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="19">
         <v>2</v>
       </c>
@@ -23174,7 +23174,7 @@
         <v>0.16551279999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>3</v>
       </c>
@@ -23203,7 +23203,7 @@
         <v>0.16489590000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="19">
         <v>4</v>
       </c>
@@ -23232,7 +23232,7 @@
         <v>0.1720246</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>5</v>
       </c>
@@ -23261,7 +23261,7 @@
         <v>0.14415600000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
         <v>6</v>
       </c>
@@ -23290,7 +23290,7 @@
         <v>0.13813139999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <v>7</v>
       </c>
@@ -23319,7 +23319,7 @@
         <v>0.13095870000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>8</v>
       </c>
@@ -23348,7 +23348,7 @@
         <v>0.1408739</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>9</v>
       </c>
@@ -23377,7 +23377,7 @@
         <v>0.1270667</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>10</v>
       </c>
@@ -23406,7 +23406,7 @@
         <v>0.1277121</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>11</v>
       </c>
@@ -23435,7 +23435,7 @@
         <v>0.1200058</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>12</v>
       </c>
@@ -23464,7 +23464,7 @@
         <v>0.1235797</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <v>13</v>
       </c>
@@ -23493,7 +23493,7 @@
         <v>0.1234851</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>14</v>
       </c>
@@ -23522,7 +23522,7 @@
         <v>0.13684070000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <v>15</v>
       </c>
@@ -23551,7 +23551,7 @@
         <v>0.13483339999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <v>16</v>
       </c>
@@ -23580,7 +23580,7 @@
         <v>0.14351620000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <v>17</v>
       </c>
@@ -23609,7 +23609,7 @@
         <v>0.1537509</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <v>18</v>
       </c>
@@ -23638,7 +23638,7 @@
         <v>0.14657310000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
         <v>19</v>
       </c>
@@ -23667,7 +23667,7 @@
         <v>0.15847600000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>20</v>
       </c>
@@ -23696,7 +23696,7 @@
         <v>0.18429110000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
         <v>21</v>
       </c>
@@ -23725,7 +23725,7 @@
         <v>0.18285789999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>22</v>
       </c>
@@ -23754,7 +23754,7 @@
         <v>0.1802319</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
         <v>23</v>
       </c>
@@ -23783,7 +23783,7 @@
         <v>0.15673529999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
         <v>24</v>
       </c>
@@ -23812,7 +23812,7 @@
         <v>0.1436982</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
         <v>25</v>
       </c>
@@ -23841,7 +23841,7 @@
         <v>0.15141060000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
         <v>26</v>
       </c>
@@ -23870,7 +23870,7 @@
         <v>0.15662010000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
         <v>27</v>
       </c>
@@ -23899,7 +23899,7 @@
         <v>0.1548428</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <v>28</v>
       </c>
@@ -23928,7 +23928,7 @@
         <v>0.15940589999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
         <v>29</v>
       </c>
@@ -23957,7 +23957,7 @@
         <v>0.15588689999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
         <v>30</v>
       </c>
@@ -23986,7 +23986,7 @@
         <v>0.15988640000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="19">
         <v>31</v>
       </c>
@@ -24015,7 +24015,7 @@
         <v>0.17315469999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <v>32</v>
       </c>
@@ -24044,7 +24044,7 @@
         <v>0.16402829999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="19">
         <v>33</v>
       </c>
@@ -24073,7 +24073,7 @@
         <v>0.15291650000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="19">
         <v>34</v>
       </c>
@@ -24102,7 +24102,7 @@
         <v>0.13802510000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="19">
         <v>35</v>
       </c>
@@ -24131,7 +24131,7 @@
         <v>0.13204360000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="19">
         <v>36</v>
       </c>
@@ -24160,7 +24160,7 @@
         <v>0.12065919999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="19">
         <v>37</v>
       </c>
@@ -24189,7 +24189,7 @@
         <v>0.1359689</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="19">
         <v>38</v>
       </c>
@@ -24218,7 +24218,7 @@
         <v>0.1337209</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="19">
         <v>39</v>
       </c>
@@ -24247,7 +24247,7 @@
         <v>0.13962910000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="19">
         <v>40</v>
       </c>
@@ -24276,7 +24276,7 @@
         <v>0.1594439</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="19">
         <v>41</v>
       </c>
@@ -24305,7 +24305,7 @@
         <v>0.1558147</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
         <v>42</v>
       </c>
@@ -24334,7 +24334,7 @@
         <v>0.1528622</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="19">
         <v>43</v>
       </c>
@@ -24363,7 +24363,7 @@
         <v>0.1609961</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="19">
         <v>44</v>
       </c>
@@ -24392,7 +24392,7 @@
         <v>0.15548480000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="19">
         <v>45</v>
       </c>
@@ -24421,7 +24421,7 @@
         <v>0.16269310000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="19">
         <v>46</v>
       </c>
@@ -24464,11 +24464,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B474738E-A799-2444-AD34-F9C33B8A4EA0}">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView zoomScale="35" zoomScaleNormal="181" workbookViewId="0">
+    <sheetView topLeftCell="A39" zoomScale="117" zoomScaleNormal="181" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.83203125" customWidth="1"/>
@@ -24477,7 +24477,7 @@
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -24497,7 +24497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2002</v>
       </c>
@@ -24519,7 +24519,7 @@
         <v>4.1422039859320048</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2003</v>
       </c>
@@ -24541,7 +24541,7 @@
         <v>4.2710615069017077</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2004</v>
       </c>
@@ -24566,7 +24566,7 @@
         <v>4.0643496954496596</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2005</v>
       </c>
@@ -24588,7 +24588,7 @@
         <v>4.2074329761057925</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2006</v>
       </c>
@@ -24613,7 +24613,7 @@
         <v>3.017393496344845</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2007</v>
       </c>
@@ -24638,7 +24638,7 @@
         <v>6.1789053659698654</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2008</v>
       </c>
@@ -24660,7 +24660,7 @@
         <v>0.71619021121699</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2009</v>
       </c>
@@ -24682,7 +24682,7 @@
         <v>5.8719093406593403</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2010</v>
       </c>
@@ -24704,7 +24704,7 @@
         <v>4.0313644473659496</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -24726,7 +24726,7 @@
         <v>5.3123812375479371</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2012</v>
       </c>
@@ -24748,7 +24748,7 @@
         <v>6.2447060430802859</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2013</v>
       </c>
@@ -24770,7 +24770,7 @@
         <v>7.771917808219178</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2014</v>
       </c>
@@ -24792,7 +24792,7 @@
         <v>5.7629463622122863</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -24814,7 +24814,7 @@
         <v>9.6707238802548936</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -24836,7 +24836,7 @@
         <v>6.5063003798758459</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2017</v>
       </c>
@@ -24858,7 +24858,7 @@
         <v>10.397911024260916</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -24883,7 +24883,7 @@
         <v>6.4625899280575538</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19">
         <f>SUM(B2:B18)</f>
         <v>737125</v>
@@ -24897,122 +24897,122 @@
         <v>5.5729486407940225</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D23" s="3">
         <v>2002</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D26" s="3">
         <v>2003</v>
       </c>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D27" s="3">
         <v>8628.2999999999993</v>
       </c>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D28" s="3">
         <v>3</v>
       </c>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D29" s="3">
         <v>2004</v>
       </c>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D30" s="3">
         <v>6977.5</v>
       </c>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D31" s="3">
         <v>4</v>
       </c>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D32" s="3">
         <v>2005</v>
       </c>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D33" s="3">
         <v>8575.2999999999993</v>
       </c>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D34" s="3">
         <v>5</v>
       </c>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D35" s="3">
         <v>2006</v>
       </c>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D36" s="3">
         <v>6743.9</v>
       </c>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D37" s="3">
         <v>6</v>
       </c>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D38" s="3">
         <v>2007</v>
       </c>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D39" s="3">
         <v>1679.1</v>
       </c>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D40" s="3">
         <v>7</v>
       </c>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D41" s="3">
         <v>2008</v>
       </c>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D42" s="3">
         <v>8626.2000000000007</v>
       </c>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>5</v>
       </c>
@@ -25032,7 +25032,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2002</v>
       </c>
@@ -25054,7 +25054,7 @@
         <v>4.1422039859320048</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2003</v>
       </c>
@@ -25076,7 +25076,7 @@
         <v>4.2710615069017077</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2004</v>
       </c>
@@ -25101,7 +25101,7 @@
         <v>4.0643496954496596</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2005</v>
       </c>
@@ -25123,7 +25123,7 @@
         <v>4.2074329761057925</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2006</v>
       </c>
@@ -25148,7 +25148,7 @@
         <v>3.017393496344845</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2007</v>
       </c>
@@ -25173,7 +25173,7 @@
         <v>6.1789053659698654</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2009</v>
       </c>
@@ -25195,7 +25195,7 @@
         <v>5.8719093406593403</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2010</v>
       </c>
@@ -25217,7 +25217,7 @@
         <v>4.0313644473659496</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2011</v>
       </c>
@@ -25239,7 +25239,7 @@
         <v>5.3123812375479371</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2012</v>
       </c>
@@ -25261,7 +25261,7 @@
         <v>6.2447060430802859</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2013</v>
       </c>
@@ -25283,7 +25283,7 @@
         <v>7.771917808219178</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2014</v>
       </c>
@@ -25305,7 +25305,7 @@
         <v>5.7629463622122863</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2015</v>
       </c>
@@ -25327,7 +25327,7 @@
         <v>9.6707238802548936</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2016</v>
       </c>
@@ -25349,7 +25349,7 @@
         <v>6.5063003798758459</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2017</v>
       </c>
@@ -25371,7 +25371,7 @@
         <v>10.397911024260916</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2018</v>
       </c>
@@ -25396,79 +25396,79 @@
         <v>6.4625899280575538</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D60" s="3">
         <v>14</v>
       </c>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D61" s="3">
         <v>2015</v>
       </c>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D62" s="3">
         <v>8725.2000000000007</v>
       </c>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D63" s="3">
         <v>15</v>
       </c>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D64" s="3">
         <v>2016</v>
       </c>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="4:5">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D65" s="3">
         <v>8634.4</v>
       </c>
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="4:5">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D66" s="3">
         <v>16</v>
       </c>
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="4:5">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D67" s="3">
         <v>2017</v>
       </c>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="4:5">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D68" s="3">
         <v>8750.7000000000007</v>
       </c>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="4:5">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D69" s="3">
         <v>17</v>
       </c>
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="4:5">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D70" s="3">
         <v>2018</v>
       </c>
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="4:5">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D71" s="3">
         <v>4170</v>
       </c>
       <c r="E71" s="4"/>
     </row>
-    <row r="72" spans="4:5">
+    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E72" s="4"/>
     </row>
   </sheetData>
@@ -25485,7 +25485,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="27.83203125" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
@@ -25493,7 +25493,7 @@
     <col min="7" max="7" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -25513,7 +25513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2002</v>
       </c>
@@ -25535,7 +25535,7 @@
         <v>3.3551205872072702</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2003</v>
       </c>
@@ -25557,7 +25557,7 @@
         <v>2.2903095636133051</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2004</v>
       </c>
@@ -25582,7 +25582,7 @@
         <v>2.4466778973817203</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2005</v>
       </c>
@@ -25604,7 +25604,7 @@
         <v>6.0107704575133187</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2006</v>
       </c>
@@ -25630,7 +25630,7 @@
         <v>1.9743811806408731</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2007</v>
       </c>
@@ -25655,7 +25655,7 @@
         <v>8.9121917492509795</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="20" customFormat="1">
+    <row r="8" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>2008</v>
       </c>
@@ -25677,7 +25677,7 @@
         <v>1.0048720320690718</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2009</v>
       </c>
@@ -25700,7 +25700,7 @@
         <v>4.9274941995359622</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2010</v>
       </c>
@@ -25722,7 +25722,7 @@
         <v>4.1531501968873057</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -25744,7 +25744,7 @@
         <v>7.9916131538654911</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2012</v>
       </c>
@@ -25766,7 +25766,7 @@
         <v>12.130951697202917</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2013</v>
       </c>
@@ -25788,7 +25788,7 @@
         <v>7.7656392694063925</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2014</v>
       </c>
@@ -25813,7 +25813,7 @@
         <v>10.678344615814083</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15">
         <f>SUM(B2:B14)</f>
         <v>486320</v>
@@ -25827,41 +25827,41 @@
         <v>5.2757190217485643</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39">
         <f>B33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>6</v>
       </c>
@@ -25881,7 +25881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2002</v>
       </c>
@@ -25903,7 +25903,7 @@
         <v>3.3551205872072702</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2003</v>
       </c>
@@ -25925,7 +25925,7 @@
         <v>2.2903095636133051</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2004</v>
       </c>
@@ -25950,7 +25950,7 @@
         <v>2.4466778973817203</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2005</v>
       </c>
@@ -25972,7 +25972,7 @@
         <v>6.0107704575133187</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2006</v>
       </c>
@@ -25998,7 +25998,7 @@
         <v>1.9743811806408731</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2007</v>
       </c>
@@ -26023,7 +26023,7 @@
         <v>8.9121917492509795</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2009</v>
       </c>
@@ -26046,7 +26046,7 @@
         <v>4.9274941995359622</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2010</v>
       </c>
@@ -26068,7 +26068,7 @@
         <v>4.1531501968873057</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2011</v>
       </c>
@@ -26090,7 +26090,7 @@
         <v>7.9916131538654911</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2012</v>
       </c>
@@ -26112,7 +26112,7 @@
         <v>12.130951697202917</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2013</v>
       </c>
@@ -26134,7 +26134,7 @@
         <v>7.7656392694063925</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2014</v>
       </c>
@@ -26159,23 +26159,23 @@
         <v>10.678344615814083</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
     </row>
-    <row r="85" spans="2:3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
     </row>
-    <row r="92" spans="2:3">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
     </row>
-    <row r="99" spans="2:3">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
     </row>
-    <row r="106" spans="2:3">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
     </row>
@@ -26193,12 +26193,12 @@
       <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="18" max="18" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
@@ -26221,7 +26221,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -26232,7 +26232,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -26251,7 +26251,7 @@
       </c>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
         <v>101</v>
       </c>
@@ -26274,7 +26274,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -26294,7 +26294,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -26320,7 +26320,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -26346,7 +26346,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="H8" t="s">
         <v>102</v>
       </c>
@@ -26354,12 +26354,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -26370,7 +26370,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -26381,7 +26381,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -26392,7 +26392,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -26403,7 +26403,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -26414,7 +26414,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="H15" t="s">
         <v>106</v>
       </c>
@@ -26422,7 +26422,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -26433,7 +26433,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H17" t="s">
         <v>82</v>
       </c>
@@ -26441,12 +26441,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -26457,12 +26457,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -26473,7 +26473,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H22" t="s">
         <v>108</v>
       </c>
@@ -26481,7 +26481,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -26492,7 +26492,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H24" t="s">
         <v>110</v>
       </c>
@@ -26500,7 +26500,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>25</v>
       </c>
@@ -26517,17 +26517,17 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H29" t="s">
         <v>72</v>
       </c>
@@ -26535,7 +26535,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -26546,7 +26546,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -26557,12 +26557,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H33" t="s">
         <v>74</v>
       </c>
@@ -26570,7 +26570,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -26581,7 +26581,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -26592,12 +26592,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -26608,7 +26608,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -26619,7 +26619,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -26630,7 +26630,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H40" t="s">
         <v>116</v>
       </c>
@@ -26638,7 +26638,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -26649,7 +26649,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H42" t="s">
         <v>82</v>
       </c>
@@ -26657,12 +26657,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -26673,12 +26673,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>98</v>
       </c>
@@ -26689,7 +26689,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H47" t="s">
         <v>118</v>
       </c>
@@ -26697,7 +26697,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>88</v>
       </c>
@@ -26708,7 +26708,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="8:15">
+    <row r="49" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H49" t="s">
         <v>120</v>
       </c>
@@ -26716,7 +26716,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="8:15">
+    <row r="51" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H51" t="s">
         <v>111</v>
       </c>
@@ -26724,7 +26724,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="8:15">
+    <row r="54" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H54" t="s">
         <v>72</v>
       </c>
@@ -26732,7 +26732,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="8:15">
+    <row r="55" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H55" t="s">
         <v>121</v>
       </c>
@@ -26740,7 +26740,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="8:15">
+    <row r="56" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H56" t="s">
         <v>113</v>
       </c>
@@ -26748,7 +26748,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="8:15">
+    <row r="58" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H58" t="s">
         <v>74</v>
       </c>
@@ -26756,7 +26756,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="8:15">
+    <row r="59" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H59" t="s">
         <v>75</v>
       </c>
@@ -26764,7 +26764,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="8:15">
+    <row r="60" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H60" t="s">
         <v>122</v>
       </c>
@@ -26772,7 +26772,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="8:15">
+    <row r="62" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H62" t="s">
         <v>77</v>
       </c>
@@ -26780,7 +26780,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="8:15">
+    <row r="63" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H63" t="s">
         <v>78</v>
       </c>
@@ -26788,7 +26788,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="8:15">
+    <row r="64" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H64" t="s">
         <v>123</v>
       </c>
@@ -26796,7 +26796,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="8:15">
+    <row r="65" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H65" t="s">
         <v>124</v>
       </c>
@@ -26804,7 +26804,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="8:15">
+    <row r="66" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H66" t="s">
         <v>81</v>
       </c>
@@ -26812,7 +26812,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="8:15">
+    <row r="67" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H67" t="s">
         <v>82</v>
       </c>
@@ -26820,7 +26820,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="8:15">
+    <row r="69" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H69" t="s">
         <v>83</v>
       </c>
@@ -26828,7 +26828,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="8:15">
+    <row r="71" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H71" t="s">
         <v>107</v>
       </c>
@@ -26836,7 +26836,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="8:15">
+    <row r="72" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H72" t="s">
         <v>125</v>
       </c>
@@ -26844,7 +26844,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="73" spans="8:15">
+    <row r="73" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H73" t="s">
         <v>109</v>
       </c>
@@ -26852,7 +26852,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="8:15">
+    <row r="74" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H74" t="s">
         <v>126</v>
       </c>
@@ -26860,12 +26860,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="76" spans="8:15">
+    <row r="76" spans="8:15" x14ac:dyDescent="0.2">
       <c r="O76" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="79" spans="8:15">
+    <row r="79" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H79" t="s">
         <v>72</v>
       </c>
@@ -26873,7 +26873,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="8:15">
+    <row r="80" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H80" t="s">
         <v>127</v>
       </c>
@@ -26881,7 +26881,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="81" spans="8:18">
+    <row r="81" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H81" t="s">
         <v>113</v>
       </c>
@@ -26889,7 +26889,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="8:18">
+    <row r="83" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H83" t="s">
         <v>74</v>
       </c>
@@ -26897,7 +26897,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="8:18">
+    <row r="84" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H84" t="s">
         <v>75</v>
       </c>
@@ -26905,7 +26905,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="8:18">
+    <row r="85" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H85" t="s">
         <v>128</v>
       </c>
@@ -26913,13 +26913,13 @@
         <v>159</v>
       </c>
     </row>
-    <row r="86" spans="8:18">
+    <row r="86" spans="8:18" x14ac:dyDescent="0.2">
       <c r="R86" cm="1">
         <f t="array" aca="1" ref="R86" ca="1">R71:X86</f>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="8:18">
+    <row r="87" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H87" t="s">
         <v>77</v>
       </c>
@@ -26927,7 +26927,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="8:18">
+    <row r="88" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H88" t="s">
         <v>78</v>
       </c>
@@ -26935,7 +26935,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="89" spans="8:18">
+    <row r="89" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H89" t="s">
         <v>129</v>
       </c>
@@ -26943,7 +26943,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="90" spans="8:18">
+    <row r="90" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H90" t="s">
         <v>130</v>
       </c>
@@ -26951,7 +26951,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="91" spans="8:18">
+    <row r="91" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H91" t="s">
         <v>81</v>
       </c>
@@ -26959,7 +26959,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="8:18">
+    <row r="92" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H92" t="s">
         <v>82</v>
       </c>
@@ -26967,7 +26967,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="94" spans="8:18">
+    <row r="94" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H94" t="s">
         <v>83</v>
       </c>
@@ -26975,7 +26975,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="96" spans="8:18">
+    <row r="96" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H96" t="s">
         <v>131</v>
       </c>
@@ -26983,7 +26983,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="8:15">
+    <row r="97" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H97" t="s">
         <v>132</v>
       </c>
@@ -26991,7 +26991,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="98" spans="8:15">
+    <row r="98" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H98" t="s">
         <v>133</v>
       </c>
@@ -26999,7 +26999,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="99" spans="8:15">
+    <row r="99" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H99" t="s">
         <v>134</v>
       </c>
@@ -27007,7 +27007,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="8:15">
+    <row r="101" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H101" t="s">
         <v>111</v>
       </c>
@@ -27029,16 +27029,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E575A6A8-D36B-1E42-A89C-ECDE6FA02A7B}">
   <dimension ref="A1:Z92"/>
   <sheetViews>
-    <sheetView topLeftCell="Q7" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="143" workbookViewId="0">
       <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="10" max="10" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K1" t="s">
         <v>5</v>
       </c>
@@ -27046,7 +27046,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>213</v>
       </c>
@@ -27054,7 +27054,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>184</v>
       </c>
@@ -27062,7 +27062,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>204</v>
       </c>
@@ -27078,7 +27078,7 @@
       </c>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>223</v>
       </c>
@@ -27101,7 +27101,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>224</v>
       </c>
@@ -27124,7 +27124,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="K8" s="5"/>
       <c r="V8" t="s">
@@ -27143,7 +27143,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>188</v>
       </c>
@@ -27166,7 +27166,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>225</v>
       </c>
@@ -27174,11 +27174,11 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>190</v>
       </c>
@@ -27186,7 +27186,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>191</v>
       </c>
@@ -27194,7 +27194,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>226</v>
       </c>
@@ -27210,7 +27210,7 @@
       </c>
       <c r="Z14" s="10"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="K15" s="5"/>
       <c r="V15" t="s">
@@ -27229,7 +27229,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>193</v>
       </c>
@@ -27252,7 +27252,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>194</v>
       </c>
@@ -27275,7 +27275,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>227</v>
       </c>
@@ -27283,7 +27283,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>228</v>
       </c>
@@ -27291,11 +27291,11 @@
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>197</v>
       </c>
@@ -27303,7 +27303,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>78</v>
       </c>
@@ -27311,7 +27311,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>229</v>
       </c>
@@ -27319,7 +27319,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>230</v>
       </c>
@@ -27327,7 +27327,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>81</v>
       </c>
@@ -27335,7 +27335,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>82</v>
       </c>
@@ -27343,11 +27343,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>200</v>
       </c>
@@ -27355,7 +27355,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>201</v>
       </c>
@@ -27363,7 +27363,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>231</v>
       </c>
@@ -27371,17 +27371,17 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K31" s="15" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K32" s="15" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>213</v>
       </c>
@@ -27389,7 +27389,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>184</v>
       </c>
@@ -27397,7 +27397,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>185</v>
       </c>
@@ -27405,7 +27405,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>223</v>
       </c>
@@ -27413,7 +27413,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>224</v>
       </c>
@@ -27421,11 +27421,11 @@
         <v>187</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
         <v>188</v>
       </c>
@@ -27433,7 +27433,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>233</v>
       </c>
@@ -27441,11 +27441,11 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
         <v>190</v>
       </c>
@@ -27453,7 +27453,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>191</v>
       </c>
@@ -27461,7 +27461,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
         <v>234</v>
       </c>
@@ -27469,11 +27469,11 @@
         <v>192</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
         <v>193</v>
       </c>
@@ -27481,7 +27481,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
         <v>194</v>
       </c>
@@ -27489,7 +27489,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
         <v>235</v>
       </c>
@@ -27497,7 +27497,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
         <v>236</v>
       </c>
@@ -27505,11 +27505,11 @@
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="K52" s="5"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
         <v>197</v>
       </c>
@@ -27517,7 +27517,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>78</v>
       </c>
@@ -27525,7 +27525,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
         <v>237</v>
       </c>
@@ -27533,7 +27533,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
         <v>238</v>
       </c>
@@ -27541,7 +27541,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
         <v>81</v>
       </c>
@@ -27549,7 +27549,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
         <v>82</v>
       </c>
@@ -27557,11 +27557,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="K59" s="5"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
         <v>200</v>
       </c>
@@ -27569,7 +27569,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
         <v>201</v>
       </c>
@@ -27577,7 +27577,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
         <v>239</v>
       </c>
@@ -27585,7 +27585,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
         <v>240</v>
       </c>
@@ -27593,7 +27593,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
         <v>184</v>
       </c>
@@ -27601,7 +27601,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
         <v>214</v>
       </c>
@@ -27609,7 +27609,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
         <v>223</v>
       </c>
@@ -27617,7 +27617,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
         <v>224</v>
       </c>
@@ -27625,11 +27625,11 @@
         <v>187</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="K70" s="5"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
         <v>188</v>
       </c>
@@ -27637,7 +27637,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
         <v>241</v>
       </c>
@@ -27645,11 +27645,11 @@
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="K73" s="5"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
         <v>190</v>
       </c>
@@ -27657,7 +27657,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
         <v>191</v>
       </c>
@@ -27665,7 +27665,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
         <v>242</v>
       </c>
@@ -27673,11 +27673,11 @@
         <v>216</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="K77" s="5"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
         <v>193</v>
       </c>
@@ -27685,7 +27685,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
         <v>194</v>
       </c>
@@ -27693,7 +27693,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
         <v>243</v>
       </c>
@@ -27701,7 +27701,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
         <v>244</v>
       </c>
@@ -27709,11 +27709,11 @@
         <v>218</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="K82" s="5"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
         <v>197</v>
       </c>
@@ -27721,7 +27721,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
         <v>78</v>
       </c>
@@ -27729,7 +27729,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
         <v>245</v>
       </c>
@@ -27737,7 +27737,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
         <v>246</v>
       </c>
@@ -27745,7 +27745,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
         <v>81</v>
       </c>
@@ -27753,7 +27753,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
         <v>82</v>
       </c>
@@ -27761,11 +27761,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="K89" s="5"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
         <v>200</v>
       </c>
@@ -27773,7 +27773,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
         <v>221</v>
       </c>
@@ -27781,7 +27781,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
         <v>247</v>
       </c>
